--- a/resultados/dados_volume_inv.xlsx
+++ b/resultados/dados_volume_inv.xlsx
@@ -2018,10 +2018,10 @@
         <v>0.01</v>
       </c>
       <c r="H2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02</v>
       </c>
       <c r="J2" t="n">
         <v>7</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="n">
         <v>0.01</v>
@@ -2091,7 +2091,7 @@
         <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -2123,10 +2123,10 @@
         <v>0.02</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J5" t="n">
         <v>6</v>
@@ -2158,10 +2158,10 @@
         <v>0.03</v>
       </c>
       <c r="H6" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="I6" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
@@ -2193,10 +2193,10 @@
         <v>0.01</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -2228,10 +2228,10 @@
         <v>0.04</v>
       </c>
       <c r="H8" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="I8" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="J8" t="n">
         <v>12</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
@@ -2298,10 +2298,10 @@
         <v>0.17</v>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>2.61</v>
       </c>
       <c r="I10" t="n">
-        <v>1.16</v>
+        <v>1.83</v>
       </c>
       <c r="J10" t="n">
         <v>14</v>
@@ -2333,10 +2333,10 @@
         <v>0.02</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J11" t="n">
         <v>8</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I12" t="n">
         <v>0.01</v>
@@ -2403,10 +2403,10 @@
         <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J13" t="n">
         <v>8</v>
@@ -2438,7 +2438,7 @@
         <v>0.01</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I14" t="n">
         <v>0.01</v>
@@ -2473,10 +2473,10 @@
         <v>0.02</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="J15" t="n">
         <v>9</v>
@@ -2508,10 +2508,10 @@
         <v>0.01</v>
       </c>
       <c r="H16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.02</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
         <v>0.01</v>
@@ -2578,10 +2578,10 @@
         <v>0.14</v>
       </c>
       <c r="H18" t="n">
-        <v>1.29</v>
+        <v>2.03</v>
       </c>
       <c r="I18" t="n">
-        <v>0.71</v>
+        <v>1.13</v>
       </c>
       <c r="J18" t="n">
         <v>10</v>
@@ -2613,10 +2613,10 @@
         <v>0.06</v>
       </c>
       <c r="H19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.57</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.36</v>
       </c>
       <c r="J19" t="n">
         <v>12</v>
@@ -2648,10 +2648,10 @@
         <v>0.02</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="J20" t="n">
         <v>7</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I21" t="n">
         <v>0.01</v>
@@ -2718,7 +2718,7 @@
         <v>0.01</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
         <v>0.02</v>
@@ -2788,10 +2788,10 @@
         <v>0.01</v>
       </c>
       <c r="H24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.02</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -2826,7 +2826,7 @@
         <v>0.01</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -2858,10 +2858,10 @@
         <v>0.05</v>
       </c>
       <c r="H26" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.27</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.17</v>
       </c>
       <c r="J26" t="n">
         <v>6.5</v>
@@ -2896,7 +2896,7 @@
         <v>0.01</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -2928,10 +2928,10 @@
         <v>0.01</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J28" t="n">
         <v>5</v>
@@ -2963,10 +2963,10 @@
         <v>0.03</v>
       </c>
       <c r="H29" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="I29" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="J29" t="n">
         <v>13</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
@@ -3033,10 +3033,10 @@
         <v>0.01</v>
       </c>
       <c r="H31" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I31" t="n">
         <v>0.08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.05</v>
       </c>
       <c r="J31" t="n">
         <v>8</v>
@@ -3068,10 +3068,10 @@
         <v>0.04</v>
       </c>
       <c r="H32" t="n">
-        <v>0.37</v>
+        <v>0.58</v>
       </c>
       <c r="I32" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="J32" t="n">
         <v>7</v>
@@ -3103,10 +3103,10 @@
         <v>0.02</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="J33" t="n">
         <v>4.5</v>
@@ -3138,10 +3138,10 @@
         <v>0.01</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J34" t="n">
         <v>10</v>
@@ -3208,10 +3208,10 @@
         <v>0.02</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J36" t="n">
         <v>5</v>
@@ -3243,10 +3243,10 @@
         <v>0.06</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="I37" t="n">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="J37" t="n">
         <v>10</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J38" t="n">
         <v>5</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>0.01</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -3383,10 +3383,10 @@
         <v>0.01</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J41" t="n">
         <v>5</v>
@@ -3418,10 +3418,10 @@
         <v>0.14</v>
       </c>
       <c r="H42" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="I42" t="n">
-        <v>0.91</v>
+        <v>1.45</v>
       </c>
       <c r="J42" t="n">
         <v>13</v>
@@ -3453,10 +3453,10 @@
         <v>0.15</v>
       </c>
       <c r="H43" t="n">
-        <v>1.81</v>
+        <v>2.86</v>
       </c>
       <c r="I43" t="n">
-        <v>0.73</v>
+        <v>1.15</v>
       </c>
       <c r="J43" t="n">
         <v>10</v>
@@ -3488,10 +3488,10 @@
         <v>0.01</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J44" t="n">
         <v>4</v>
@@ -3523,10 +3523,10 @@
         <v>0.06</v>
       </c>
       <c r="H45" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.48</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.3</v>
       </c>
       <c r="J45" t="n">
         <v>10</v>
@@ -3558,10 +3558,10 @@
         <v>0.04</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="I46" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="J46" t="n">
         <v>8.5</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I48" t="n">
         <v>0.01</v>
@@ -3663,10 +3663,10 @@
         <v>0.01</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J49" t="n">
         <v>3</v>
@@ -3701,7 +3701,7 @@
         <v>0.01</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J50" t="n">
         <v>4</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -3768,10 +3768,10 @@
         <v>0.06</v>
       </c>
       <c r="H52" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I52" t="n">
         <v>0.48</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.3</v>
       </c>
       <c r="J52" t="n">
         <v>10</v>
@@ -3838,7 +3838,7 @@
         <v>0.01</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I54" t="n">
         <v>0.01</v>
@@ -3873,10 +3873,10 @@
         <v>0.01</v>
       </c>
       <c r="H55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I55" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.02</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -3908,10 +3908,10 @@
         <v>0.01</v>
       </c>
       <c r="H56" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J56" t="n">
         <v>9</v>
@@ -3943,7 +3943,7 @@
         <v>0.01</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I57" t="n">
         <v>0.01</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
         <v>0.01</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I59" t="n">
         <v>0.01</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I61" t="n">
         <v>0.01</v>
@@ -4118,10 +4118,10 @@
         <v>0.05</v>
       </c>
       <c r="H62" t="n">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
       <c r="I62" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="J62" t="n">
         <v>9</v>
@@ -4153,10 +4153,10 @@
         <v>0.46</v>
       </c>
       <c r="H63" t="n">
-        <v>5.73</v>
+        <v>9.05</v>
       </c>
       <c r="I63" t="n">
-        <v>3.44</v>
+        <v>5.43</v>
       </c>
       <c r="J63" t="n">
         <v>15</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I64" t="n">
         <v>0.01</v>
@@ -4223,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J65" t="n">
         <v>2</v>
@@ -4258,10 +4258,10 @@
         <v>0.01</v>
       </c>
       <c r="H66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I66" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.02</v>
       </c>
       <c r="J66" t="n">
         <v>4</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I67" t="n">
         <v>0.01</v>
@@ -4363,10 +4363,10 @@
         <v>0.05</v>
       </c>
       <c r="H69" t="n">
-        <v>0.37</v>
+        <v>0.59</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="J69" t="n">
         <v>8</v>
@@ -4398,10 +4398,10 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I70" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J70" t="n">
         <v>7</v>
@@ -4436,7 +4436,7 @@
         <v>0.01</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J71" t="n">
         <v>3</v>
@@ -4471,7 +4471,7 @@
         <v>0.01</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J72" t="n">
         <v>3</v>
@@ -4506,7 +4506,7 @@
         <v>0.01</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J73" t="n">
         <v>2</v>
@@ -4541,7 +4541,7 @@
         <v>0.01</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J74" t="n">
         <v>3</v>
@@ -4573,10 +4573,10 @@
         <v>0.02</v>
       </c>
       <c r="H75" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J75" t="n">
         <v>3.25</v>
@@ -4608,10 +4608,10 @@
         <v>0.01</v>
       </c>
       <c r="H76" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I76" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J76" t="n">
         <v>7</v>
@@ -4643,10 +4643,10 @@
         <v>0.01</v>
       </c>
       <c r="H77" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J77" t="n">
         <v>4</v>
@@ -4681,7 +4681,7 @@
         <v>0.01</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J78" t="n">
         <v>2</v>
@@ -4713,10 +4713,10 @@
         <v>0.03</v>
       </c>
       <c r="H79" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="I79" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="J79" t="n">
         <v>7</v>
@@ -4748,10 +4748,10 @@
         <v>0.01</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="J80" t="n">
         <v>6</v>
@@ -4818,10 +4818,10 @@
         <v>0.01</v>
       </c>
       <c r="H82" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J82" t="n">
         <v>3.5</v>
@@ -4856,7 +4856,7 @@
         <v>0.01</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J83" t="n">
         <v>2.5</v>
@@ -4888,10 +4888,10 @@
         <v>0.02</v>
       </c>
       <c r="H84" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="I84" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="J84" t="n">
         <v>7</v>
@@ -4926,7 +4926,7 @@
         <v>0.01</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J85" t="n">
         <v>2</v>
@@ -4958,10 +4958,10 @@
         <v>0.01</v>
       </c>
       <c r="H86" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="I86" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J86" t="n">
         <v>3</v>
@@ -4993,10 +4993,10 @@
         <v>0.02</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I87" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J87" t="n">
         <v>3</v>
@@ -5063,10 +5063,10 @@
         <v>0.02</v>
       </c>
       <c r="H89" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I89" t="n">
         <v>0.11</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.07</v>
       </c>
       <c r="J89" t="n">
         <v>7</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -5133,10 +5133,10 @@
         <v>0.02</v>
       </c>
       <c r="H91" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I91" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J91" t="n">
         <v>5</v>
@@ -5168,10 +5168,10 @@
         <v>0.01</v>
       </c>
       <c r="H92" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="I92" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J92" t="n">
         <v>2.5</v>
@@ -5203,10 +5203,10 @@
         <v>0.01</v>
       </c>
       <c r="H93" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I93" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J93" t="n">
         <v>4</v>
@@ -5238,7 +5238,7 @@
         <v>0.01</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I94" t="n">
         <v>0.02</v>
@@ -5273,10 +5273,10 @@
         <v>0.01</v>
       </c>
       <c r="H95" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I95" t="n">
         <v>0.07</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.05</v>
       </c>
       <c r="J95" t="n">
         <v>9</v>
@@ -5308,10 +5308,10 @@
         <v>0.01</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I96" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J96" t="n">
         <v>4</v>
@@ -5343,10 +5343,10 @@
         <v>0.09</v>
       </c>
       <c r="H97" t="n">
-        <v>0.72</v>
+        <v>1.13</v>
       </c>
       <c r="I97" t="n">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="J97" t="n">
         <v>8</v>
@@ -5378,10 +5378,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J98" t="n">
         <v>3.5</v>
@@ -5416,7 +5416,7 @@
         <v>0.01</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J99" t="n">
         <v>3</v>
@@ -5448,10 +5448,10 @@
         <v>0.01</v>
       </c>
       <c r="H100" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I100" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J100" t="n">
         <v>5</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I101" t="n">
         <v>0.01</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I102" t="n">
         <v>0.01</v>
@@ -5553,10 +5553,10 @@
         <v>0.02</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I103" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J103" t="n">
         <v>6</v>
@@ -5588,10 +5588,10 @@
         <v>0.01</v>
       </c>
       <c r="H104" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I104" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.02</v>
       </c>
       <c r="J104" t="n">
         <v>5</v>
@@ -5623,10 +5623,10 @@
         <v>0.01</v>
       </c>
       <c r="H105" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I105" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J105" t="n">
         <v>2.5</v>
@@ -5658,10 +5658,10 @@
         <v>0.01</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J106" t="n">
         <v>3.5</v>
@@ -5763,10 +5763,10 @@
         <v>0.01</v>
       </c>
       <c r="H109" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0.07</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.04</v>
       </c>
       <c r="J109" t="n">
         <v>8</v>
@@ -5798,10 +5798,10 @@
         <v>0.13</v>
       </c>
       <c r="H110" t="n">
-        <v>0.87</v>
+        <v>1.37</v>
       </c>
       <c r="I110" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="J110" t="n">
         <v>4</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I111" t="n">
         <v>0.01</v>
@@ -5903,10 +5903,10 @@
         <v>0.02</v>
       </c>
       <c r="H113" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I113" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="J113" t="n">
         <v>5</v>
@@ -5938,10 +5938,10 @@
         <v>0.05</v>
       </c>
       <c r="H114" t="n">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="I114" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J114" t="n">
         <v>2</v>
@@ -5973,10 +5973,10 @@
         <v>0.01</v>
       </c>
       <c r="H115" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J115" t="n">
         <v>7</v>
@@ -6008,10 +6008,10 @@
         <v>0.03</v>
       </c>
       <c r="H116" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="J116" t="n">
         <v>6</v>
@@ -6043,10 +6043,10 @@
         <v>0.01</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I117" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J117" t="n">
         <v>2.5</v>
@@ -6078,10 +6078,10 @@
         <v>0.01</v>
       </c>
       <c r="H118" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I118" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J118" t="n">
         <v>5</v>
@@ -6148,10 +6148,10 @@
         <v>0.01</v>
       </c>
       <c r="H120" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I120" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J120" t="n">
         <v>5.5</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I121" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J121" t="n">
         <v>7</v>
@@ -6218,10 +6218,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I122" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J122" t="n">
         <v>5.5</v>
@@ -6288,10 +6288,10 @@
         <v>0.01</v>
       </c>
       <c r="H124" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="I124" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J124" t="n">
         <v>2.5</v>
@@ -6358,10 +6358,10 @@
         <v>0.01</v>
       </c>
       <c r="H126" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I126" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="J126" t="n">
         <v>7</v>
@@ -6393,10 +6393,10 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I127" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J127" t="n">
         <v>6</v>
@@ -6428,10 +6428,10 @@
         <v>0.03</v>
       </c>
       <c r="H128" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="I128" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="J128" t="n">
         <v>6</v>
@@ -6466,7 +6466,7 @@
         <v>0.02</v>
       </c>
       <c r="I129" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J129" t="n">
         <v>5</v>
@@ -6498,10 +6498,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I130" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J130" t="n">
         <v>5</v>
@@ -6533,10 +6533,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I131" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J131" t="n">
         <v>6.5</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I132" t="n">
         <v>0.01</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I133" t="n">
         <v>0.01</v>
@@ -6638,10 +6638,10 @@
         <v>0.02</v>
       </c>
       <c r="H134" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I134" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J134" t="n">
         <v>4</v>
@@ -6711,7 +6711,7 @@
         <v>0.02</v>
       </c>
       <c r="I136" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J136" t="n">
         <v>5</v>
@@ -6743,10 +6743,10 @@
         <v>0.01</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="I137" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J137" t="n">
         <v>5</v>
@@ -6778,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I138" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J138" t="n">
         <v>4.5</v>
@@ -6813,10 +6813,10 @@
         <v>0.01</v>
       </c>
       <c r="H139" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I139" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J139" t="n">
         <v>6</v>
@@ -6848,10 +6848,10 @@
         <v>0.02</v>
       </c>
       <c r="H140" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I140" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="J140" t="n">
         <v>11</v>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I141" t="n">
         <v>0.01</v>
@@ -6918,10 +6918,10 @@
         <v>0.01</v>
       </c>
       <c r="H142" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I142" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.02</v>
       </c>
       <c r="J142" t="n">
         <v>5.5</v>
@@ -6956,7 +6956,7 @@
         <v>0.02</v>
       </c>
       <c r="I143" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J143" t="n">
         <v>5</v>
@@ -6988,10 +6988,10 @@
         <v>0.01</v>
       </c>
       <c r="H144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I144" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.02</v>
       </c>
       <c r="J144" t="n">
         <v>4.5</v>
@@ -7023,10 +7023,10 @@
         <v>0.01</v>
       </c>
       <c r="H145" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I145" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J145" t="n">
         <v>7</v>
@@ -7058,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J146" t="n">
         <v>7</v>
@@ -7093,10 +7093,10 @@
         <v>0.03</v>
       </c>
       <c r="H147" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="I147" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J147" t="n">
         <v>4</v>
@@ -7128,10 +7128,10 @@
         <v>0.01</v>
       </c>
       <c r="H148" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="I148" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J148" t="n">
         <v>2.5</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I150" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J150" t="n">
         <v>6</v>
@@ -7233,10 +7233,10 @@
         <v>0.02</v>
       </c>
       <c r="H151" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I151" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="J151" t="n">
         <v>6</v>
@@ -7268,10 +7268,10 @@
         <v>0.03</v>
       </c>
       <c r="H152" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="I152" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="J152" t="n">
         <v>7.75</v>
@@ -7303,10 +7303,10 @@
         <v>0.02</v>
       </c>
       <c r="H153" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I153" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J153" t="n">
         <v>6</v>
@@ -7338,10 +7338,10 @@
         <v>0.08</v>
       </c>
       <c r="H154" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="I154" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="J154" t="n">
         <v>4.17</v>
@@ -7373,10 +7373,10 @@
         <v>0.2</v>
       </c>
       <c r="H155" t="n">
-        <v>1.67</v>
+        <v>2.63</v>
       </c>
       <c r="I155" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="J155" t="n">
         <v>2.5</v>
@@ -7408,10 +7408,10 @@
         <v>0.04</v>
       </c>
       <c r="H156" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I156" t="n">
         <v>0.19</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.12</v>
       </c>
       <c r="J156" t="n">
         <v>5.75</v>
@@ -7443,10 +7443,10 @@
         <v>0.06</v>
       </c>
       <c r="H157" t="n">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
       <c r="I157" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="J157" t="n">
         <v>6</v>
@@ -7478,10 +7478,10 @@
         <v>0.01</v>
       </c>
       <c r="H158" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I158" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J158" t="n">
         <v>7</v>
@@ -7513,10 +7513,10 @@
         <v>0.03</v>
       </c>
       <c r="H159" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="I159" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="J159" t="n">
         <v>7</v>
@@ -7548,10 +7548,10 @@
         <v>0.01</v>
       </c>
       <c r="H160" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I160" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.02</v>
       </c>
       <c r="J160" t="n">
         <v>6</v>
@@ -7583,10 +7583,10 @@
         <v>0.05</v>
       </c>
       <c r="H161" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="I161" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="J161" t="n">
         <v>7.5</v>
@@ -7618,10 +7618,10 @@
         <v>0.02</v>
       </c>
       <c r="H162" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I162" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J162" t="n">
         <v>6</v>
@@ -7653,10 +7653,10 @@
         <v>0.02</v>
       </c>
       <c r="H163" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="I163" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="J163" t="n">
         <v>7</v>
@@ -7688,10 +7688,10 @@
         <v>0.02</v>
       </c>
       <c r="H164" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I164" t="n">
         <v>0.11</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.07</v>
       </c>
       <c r="J164" t="n">
         <v>7</v>
@@ -7723,10 +7723,10 @@
         <v>0.03</v>
       </c>
       <c r="H165" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="J165" t="n">
         <v>7.5</v>
@@ -7761,7 +7761,7 @@
         <v>0.01</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J166" t="n">
         <v>2</v>
@@ -7793,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I167" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J167" t="n">
         <v>6</v>
@@ -7828,10 +7828,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I168" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J168" t="n">
         <v>6</v>
@@ -7863,10 +7863,10 @@
         <v>0.01</v>
       </c>
       <c r="H169" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I169" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="J169" t="n">
         <v>7</v>
@@ -7898,10 +7898,10 @@
         <v>0.03</v>
       </c>
       <c r="H170" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I170" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="J170" t="n">
         <v>5.83</v>
@@ -7933,10 +7933,10 @@
         <v>0.05</v>
       </c>
       <c r="H171" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="I171" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="J171" t="n">
         <v>4.75</v>
@@ -7968,7 +7968,7 @@
         <v>0.01</v>
       </c>
       <c r="H172" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I172" t="n">
         <v>0.01</v>
@@ -8003,10 +8003,10 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I173" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J173" t="n">
         <v>5</v>
@@ -8038,10 +8038,10 @@
         <v>0.01</v>
       </c>
       <c r="H174" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I174" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J174" t="n">
         <v>2.33</v>
@@ -8076,7 +8076,7 @@
         <v>0.01</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J175" t="n">
         <v>4.5</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I177" t="n">
         <v>0.01</v>
@@ -8178,10 +8178,10 @@
         <v>0.01</v>
       </c>
       <c r="H178" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I178" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J178" t="n">
         <v>7</v>
@@ -8213,10 +8213,10 @@
         <v>0.01</v>
       </c>
       <c r="H179" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I179" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J179" t="n">
         <v>4</v>
@@ -8248,10 +8248,10 @@
         <v>0.02</v>
       </c>
       <c r="H180" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I180" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J180" t="n">
         <v>2.5</v>
@@ -8283,7 +8283,7 @@
         <v>0.01</v>
       </c>
       <c r="H181" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I181" t="n">
         <v>0.02</v>
@@ -8356,7 +8356,7 @@
         <v>0.01</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J183" t="n">
         <v>2.5</v>
@@ -8388,10 +8388,10 @@
         <v>0.01</v>
       </c>
       <c r="H184" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I184" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J184" t="n">
         <v>3</v>
@@ -8423,10 +8423,10 @@
         <v>0.02</v>
       </c>
       <c r="H185" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I185" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J185" t="n">
         <v>6</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I186" t="n">
         <v>0.01</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0.01</v>
       </c>
       <c r="H189" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I189" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J189" t="n">
         <v>7</v>
@@ -8598,10 +8598,10 @@
         <v>0.03</v>
       </c>
       <c r="H190" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="I190" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="J190" t="n">
         <v>6.5</v>
@@ -8633,10 +8633,10 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I191" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J191" t="n">
         <v>4</v>
@@ -8671,7 +8671,7 @@
         <v>0.01</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J192" t="n">
         <v>4.5</v>
@@ -8706,7 +8706,7 @@
         <v>0.01</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J193" t="n">
         <v>3.5</v>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I195" t="n">
         <v>0.01</v>
@@ -8808,10 +8808,10 @@
         <v>0.01</v>
       </c>
       <c r="H196" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I196" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J196" t="n">
         <v>3</v>
@@ -8843,10 +8843,10 @@
         <v>0.02</v>
       </c>
       <c r="H197" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I197" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J197" t="n">
         <v>4.5</v>
@@ -8878,10 +8878,10 @@
         <v>0.01</v>
       </c>
       <c r="H198" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I198" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J198" t="n">
         <v>7</v>
@@ -8913,10 +8913,10 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I199" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J199" t="n">
         <v>4</v>
@@ -8948,10 +8948,10 @@
         <v>0.1</v>
       </c>
       <c r="H200" t="n">
-        <v>0.62</v>
+        <v>0.98</v>
       </c>
       <c r="I200" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="J200" t="n">
         <v>3</v>
@@ -8983,10 +8983,10 @@
         <v>0.02</v>
       </c>
       <c r="H201" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="I201" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="J201" t="n">
         <v>7</v>
@@ -9018,10 +9018,10 @@
         <v>0.05</v>
       </c>
       <c r="H202" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="I202" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="J202" t="n">
         <v>5.5</v>
@@ -9053,10 +9053,10 @@
         <v>0.05</v>
       </c>
       <c r="H203" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="I203" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="J203" t="n">
         <v>4</v>
@@ -9123,10 +9123,10 @@
         <v>0.01</v>
       </c>
       <c r="H205" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I205" t="n">
         <v>0.04</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0.02</v>
       </c>
       <c r="J205" t="n">
         <v>6</v>
@@ -9158,10 +9158,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J206" t="n">
         <v>2</v>
@@ -9193,10 +9193,10 @@
         <v>0.01</v>
       </c>
       <c r="H207" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I207" t="n">
         <v>0.04</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0.02</v>
       </c>
       <c r="J207" t="n">
         <v>3.5</v>
@@ -9228,10 +9228,10 @@
         <v>0.01</v>
       </c>
       <c r="H208" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I208" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J208" t="n">
         <v>6</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I209" t="n">
         <v>0.01</v>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I210" t="n">
         <v>0.01</v>
@@ -9333,10 +9333,10 @@
         <v>0.03</v>
       </c>
       <c r="H211" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="I211" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="J211" t="n">
         <v>9.5</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I212" t="n">
         <v>0.02</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I213" t="n">
         <v>0.01</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I215" t="n">
         <v>0.01</v>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I216" t="n">
         <v>0.01</v>
@@ -9543,10 +9543,10 @@
         <v>0.01</v>
       </c>
       <c r="H217" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I217" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0.03</v>
       </c>
       <c r="J217" t="n">
         <v>12</v>
@@ -9578,10 +9578,10 @@
         <v>0.01</v>
       </c>
       <c r="H218" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I218" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J218" t="n">
         <v>3</v>
@@ -9616,7 +9616,7 @@
         <v>0.02</v>
       </c>
       <c r="I219" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J219" t="n">
         <v>5</v>
@@ -9648,10 +9648,10 @@
         <v>0.01</v>
       </c>
       <c r="H220" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I220" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0.02</v>
       </c>
       <c r="J220" t="n">
         <v>5</v>
@@ -9683,10 +9683,10 @@
         <v>0.01</v>
       </c>
       <c r="H221" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I221" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J221" t="n">
         <v>5</v>
@@ -9753,10 +9753,10 @@
         <v>0.02</v>
       </c>
       <c r="H223" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I223" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J223" t="n">
         <v>3.75</v>
@@ -9788,10 +9788,10 @@
         <v>0.01</v>
       </c>
       <c r="H224" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I224" t="n">
         <v>0.04</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0.03</v>
       </c>
       <c r="J224" t="n">
         <v>7</v>
@@ -9823,10 +9823,10 @@
         <v>0.02</v>
       </c>
       <c r="H225" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I225" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J225" t="n">
         <v>6</v>
@@ -9893,10 +9893,10 @@
         <v>0.01</v>
       </c>
       <c r="H227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I227" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0.02</v>
       </c>
       <c r="J227" t="n">
         <v>6.5</v>
@@ -9931,7 +9931,7 @@
         <v>0.01</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J228" t="n">
         <v>3</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I229" t="n">
         <v>0.01</v>
@@ -9998,10 +9998,10 @@
         <v>0.01</v>
       </c>
       <c r="H230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I230" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0.02</v>
       </c>
       <c r="J230" t="n">
         <v>5.6</v>
@@ -10033,10 +10033,10 @@
         <v>0.01</v>
       </c>
       <c r="H231" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I231" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J231" t="n">
         <v>6.5</v>
@@ -10068,10 +10068,10 @@
         <v>0.01</v>
       </c>
       <c r="H232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I232" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0.02</v>
       </c>
       <c r="J232" t="n">
         <v>4.5</v>
@@ -10103,10 +10103,10 @@
         <v>0.01</v>
       </c>
       <c r="H233" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I233" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J233" t="n">
         <v>4</v>
@@ -10138,10 +10138,10 @@
         <v>0.01</v>
       </c>
       <c r="H234" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I234" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J234" t="n">
         <v>4</v>
@@ -10173,10 +10173,10 @@
         <v>0.03</v>
       </c>
       <c r="H235" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="I235" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J235" t="n">
         <v>4.5</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I236" t="n">
         <v>0.01</v>
@@ -10243,10 +10243,10 @@
         <v>0.03</v>
       </c>
       <c r="H237" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I237" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="J237" t="n">
         <v>6</v>
@@ -10278,10 +10278,10 @@
         <v>0.08</v>
       </c>
       <c r="H238" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
       <c r="I238" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="J238" t="n">
         <v>6.6</v>
@@ -10313,10 +10313,10 @@
         <v>0.01</v>
       </c>
       <c r="H239" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="I239" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J239" t="n">
         <v>5</v>
@@ -10348,10 +10348,10 @@
         <v>0.03</v>
       </c>
       <c r="H240" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="I240" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="J240" t="n">
         <v>5</v>
@@ -10383,10 +10383,10 @@
         <v>0.01</v>
       </c>
       <c r="H241" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I241" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J241" t="n">
         <v>3.5</v>
@@ -10418,10 +10418,10 @@
         <v>0.07</v>
       </c>
       <c r="H242" t="n">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="I242" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="J242" t="n">
         <v>5</v>
@@ -10488,10 +10488,10 @@
         <v>0.04</v>
       </c>
       <c r="H244" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="I244" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J244" t="n">
         <v>3</v>
@@ -10523,10 +10523,10 @@
         <v>0.04</v>
       </c>
       <c r="H245" t="n">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="I245" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="J245" t="n">
         <v>2</v>
@@ -10558,10 +10558,10 @@
         <v>0.01</v>
       </c>
       <c r="H246" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I246" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J246" t="n">
         <v>6</v>
@@ -10593,10 +10593,10 @@
         <v>0.01</v>
       </c>
       <c r="H247" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I247" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J247" t="n">
         <v>4.5</v>
@@ -10628,7 +10628,7 @@
         <v>0.01</v>
       </c>
       <c r="H248" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I248" t="n">
         <v>0.01</v>
@@ -10663,10 +10663,10 @@
         <v>0.02</v>
       </c>
       <c r="H249" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I249" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J249" t="n">
         <v>1.5</v>
@@ -10698,10 +10698,10 @@
         <v>0.4</v>
       </c>
       <c r="H250" t="n">
-        <v>5.04</v>
+        <v>7.96</v>
       </c>
       <c r="I250" t="n">
-        <v>2.01</v>
+        <v>3.18</v>
       </c>
       <c r="J250" t="n">
         <v>10</v>
@@ -10733,10 +10733,10 @@
         <v>0.01</v>
       </c>
       <c r="H251" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I251" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J251" t="n">
         <v>5.75</v>
@@ -10768,10 +10768,10 @@
         <v>0.01</v>
       </c>
       <c r="H252" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="I252" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J252" t="n">
         <v>6</v>
@@ -10803,10 +10803,10 @@
         <v>0.01</v>
       </c>
       <c r="H253" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I253" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J253" t="n">
         <v>5.5</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I254" t="n">
         <v>0.01</v>
@@ -10873,10 +10873,10 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I255" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J255" t="n">
         <v>8</v>
@@ -10908,10 +10908,10 @@
         <v>0.01</v>
       </c>
       <c r="H256" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I256" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0.02</v>
       </c>
       <c r="J256" t="n">
         <v>5</v>
@@ -10943,10 +10943,10 @@
         <v>0.01</v>
       </c>
       <c r="H257" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="I257" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J257" t="n">
         <v>6</v>
@@ -10978,7 +10978,7 @@
         <v>0.01</v>
       </c>
       <c r="H258" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I258" t="n">
         <v>0.02</v>
@@ -11013,10 +11013,10 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I259" t="n">
         <v>0.1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0.06</v>
       </c>
       <c r="J259" t="n">
         <v>6</v>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I260" t="n">
         <v>0.01</v>
@@ -11083,10 +11083,10 @@
         <v>0.01</v>
       </c>
       <c r="H261" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I261" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J261" t="n">
         <v>4</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I263" t="n">
         <v>0.01</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I264" t="n">
         <v>0.01</v>
@@ -11223,10 +11223,10 @@
         <v>0.18</v>
       </c>
       <c r="H265" t="n">
-        <v>1.23</v>
+        <v>1.95</v>
       </c>
       <c r="I265" t="n">
-        <v>0.69</v>
+        <v>1.09</v>
       </c>
       <c r="J265" t="n">
         <v>7.25</v>
@@ -11258,10 +11258,10 @@
         <v>0.02</v>
       </c>
       <c r="H266" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I266" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="J266" t="n">
         <v>6</v>
@@ -11293,10 +11293,10 @@
         <v>0.01</v>
       </c>
       <c r="H267" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I267" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J267" t="n">
         <v>4.5</v>
@@ -11328,10 +11328,10 @@
         <v>0.13</v>
       </c>
       <c r="H268" t="n">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="I268" t="n">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
       <c r="J268" t="n">
         <v>8</v>
@@ -11363,10 +11363,10 @@
         <v>0.02</v>
       </c>
       <c r="H269" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I269" t="n">
         <v>0.08</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0.05</v>
       </c>
       <c r="J269" t="n">
         <v>4.67</v>
@@ -11398,10 +11398,10 @@
         <v>0.05</v>
       </c>
       <c r="H270" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="I270" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="J270" t="n">
         <v>5.83</v>
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I272" t="n">
         <v>0.01</v>
@@ -11503,10 +11503,10 @@
         <v>0.01</v>
       </c>
       <c r="H273" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I273" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0.03</v>
       </c>
       <c r="J273" t="n">
         <v>5</v>
@@ -11538,10 +11538,10 @@
         <v>0.01</v>
       </c>
       <c r="H274" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I274" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0.03</v>
       </c>
       <c r="J274" t="n">
         <v>4.5</v>
@@ -11573,10 +11573,10 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J275" t="n">
         <v>3</v>
@@ -11608,10 +11608,10 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I276" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J276" t="n">
         <v>5</v>
@@ -11643,10 +11643,10 @@
         <v>0.01</v>
       </c>
       <c r="H277" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I277" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J277" t="n">
         <v>5</v>
@@ -11678,10 +11678,10 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I278" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J278" t="n">
         <v>5</v>
@@ -11713,10 +11713,10 @@
         <v>0.01</v>
       </c>
       <c r="H279" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I279" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J279" t="n">
         <v>5.5</v>
@@ -11783,10 +11783,10 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J281" t="n">
         <v>3.5</v>
@@ -11853,10 +11853,10 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I283" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J283" t="n">
         <v>6</v>
@@ -11888,10 +11888,10 @@
         <v>0.01</v>
       </c>
       <c r="H284" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I284" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J284" t="n">
         <v>7</v>
@@ -11923,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I285" t="n">
         <v>0.01</v>
@@ -11958,10 +11958,10 @@
         <v>0.02</v>
       </c>
       <c r="H286" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I286" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="J286" t="n">
         <v>10</v>
@@ -12028,10 +12028,10 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I288" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J288" t="n">
         <v>6</v>
@@ -12098,10 +12098,10 @@
         <v>0.18</v>
       </c>
       <c r="H290" t="n">
-        <v>1.09</v>
+        <v>1.72</v>
       </c>
       <c r="I290" t="n">
-        <v>0.59</v>
+        <v>0.93</v>
       </c>
       <c r="J290" t="n">
         <v>6.29</v>
@@ -12136,7 +12136,7 @@
         <v>0.01</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J291" t="n">
         <v>2</v>
@@ -12168,10 +12168,10 @@
         <v>0.06</v>
       </c>
       <c r="H292" t="n">
-        <v>0.39</v>
+        <v>0.62</v>
       </c>
       <c r="I292" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="J292" t="n">
         <v>7.5</v>
@@ -12203,10 +12203,10 @@
         <v>0.02</v>
       </c>
       <c r="H293" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I293" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J293" t="n">
         <v>4.5</v>
@@ -12238,10 +12238,10 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I294" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J294" t="n">
         <v>5</v>
@@ -12276,7 +12276,7 @@
         <v>0.01</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J295" t="n">
         <v>3.5</v>
@@ -12308,10 +12308,10 @@
         <v>0.01</v>
       </c>
       <c r="H296" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I296" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0.02</v>
       </c>
       <c r="J296" t="n">
         <v>5.5</v>
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I297" t="n">
         <v>0.01</v>
@@ -12378,10 +12378,10 @@
         <v>0.03</v>
       </c>
       <c r="H298" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I298" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="J298" t="n">
         <v>6</v>
@@ -12413,10 +12413,10 @@
         <v>0.02</v>
       </c>
       <c r="H299" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I299" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J299" t="n">
         <v>7</v>
@@ -12448,10 +12448,10 @@
         <v>0.01</v>
       </c>
       <c r="H300" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I300" t="n">
         <v>0.04</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0.03</v>
       </c>
       <c r="J300" t="n">
         <v>7</v>
@@ -12483,10 +12483,10 @@
         <v>0.08</v>
       </c>
       <c r="H301" t="n">
-        <v>0.44</v>
+        <v>0.69</v>
       </c>
       <c r="I301" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="J301" t="n">
         <v>6</v>
@@ -12518,10 +12518,10 @@
         <v>0.08</v>
       </c>
       <c r="H302" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="I302" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="J302" t="n">
         <v>6</v>
@@ -12553,10 +12553,10 @@
         <v>0.15</v>
       </c>
       <c r="H303" t="n">
-        <v>0.78</v>
+        <v>1.23</v>
       </c>
       <c r="I303" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="J303" t="n">
         <v>6.12</v>
@@ -12588,10 +12588,10 @@
         <v>0.01</v>
       </c>
       <c r="H304" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I304" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0.02</v>
       </c>
       <c r="J304" t="n">
         <v>5</v>
@@ -12623,10 +12623,10 @@
         <v>0.03</v>
       </c>
       <c r="H305" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I305" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="J305" t="n">
         <v>6</v>
@@ -12661,7 +12661,7 @@
         <v>0.01</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J306" t="n">
         <v>4</v>
@@ -12693,10 +12693,10 @@
         <v>0.06</v>
       </c>
       <c r="H307" t="n">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="I307" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="J307" t="n">
         <v>6</v>
@@ -12728,10 +12728,10 @@
         <v>0.01</v>
       </c>
       <c r="H308" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I308" t="n">
         <v>0.04</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0.03</v>
       </c>
       <c r="J308" t="n">
         <v>5.5</v>
@@ -12763,10 +12763,10 @@
         <v>0.02</v>
       </c>
       <c r="H309" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I309" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="J309" t="n">
         <v>10</v>
@@ -12798,10 +12798,10 @@
         <v>0.02</v>
       </c>
       <c r="H310" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I310" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J310" t="n">
         <v>6</v>
@@ -12833,10 +12833,10 @@
         <v>0.01</v>
       </c>
       <c r="H311" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I311" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J311" t="n">
         <v>5.5</v>
@@ -12868,10 +12868,10 @@
         <v>0.04</v>
       </c>
       <c r="H312" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I312" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J312" t="n">
         <v>5.5</v>
@@ -12906,7 +12906,7 @@
         <v>0.01</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J313" t="n">
         <v>3</v>
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I315" t="n">
         <v>0.01</v>
@@ -13078,10 +13078,10 @@
         <v>0.01</v>
       </c>
       <c r="H318" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I318" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J318" t="n">
         <v>3.5</v>
@@ -13148,10 +13148,10 @@
         <v>0.01</v>
       </c>
       <c r="H320" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="I320" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J320" t="n">
         <v>4</v>
@@ -13218,10 +13218,10 @@
         <v>0.01</v>
       </c>
       <c r="H322" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I322" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J322" t="n">
         <v>4</v>
@@ -13253,10 +13253,10 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I323" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J323" t="n">
         <v>4</v>
@@ -13288,10 +13288,10 @@
         <v>0.22</v>
       </c>
       <c r="H324" t="n">
-        <v>0.84</v>
+        <v>1.32</v>
       </c>
       <c r="I324" t="n">
-        <v>0.67</v>
+        <v>1.06</v>
       </c>
       <c r="J324" t="n">
         <v>6</v>
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I325" t="n">
         <v>0.01</v>
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I326" t="n">
         <v>0.01</v>
@@ -13393,10 +13393,10 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I327" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J327" t="n">
         <v>6.5</v>
@@ -13428,10 +13428,10 @@
         <v>0.01</v>
       </c>
       <c r="H328" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I328" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J328" t="n">
         <v>6</v>
@@ -13463,10 +13463,10 @@
         <v>0.01</v>
       </c>
       <c r="H329" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I329" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J329" t="n">
         <v>6</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I330" t="n">
         <v>0.01</v>
@@ -13533,10 +13533,10 @@
         <v>0.25</v>
       </c>
       <c r="H331" t="n">
-        <v>1.73</v>
+        <v>2.73</v>
       </c>
       <c r="I331" t="n">
-        <v>0.99</v>
+        <v>1.56</v>
       </c>
       <c r="J331" t="n">
         <v>8</v>
@@ -13568,10 +13568,10 @@
         <v>0.17</v>
       </c>
       <c r="H332" t="n">
-        <v>1.19</v>
+        <v>1.88</v>
       </c>
       <c r="I332" t="n">
-        <v>0.85</v>
+        <v>1.34</v>
       </c>
       <c r="J332" t="n">
         <v>10</v>
@@ -13603,10 +13603,10 @@
         <v>0.12</v>
       </c>
       <c r="H333" t="n">
-        <v>0.87</v>
+        <v>1.38</v>
       </c>
       <c r="I333" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="J333" t="n">
         <v>8</v>
@@ -13638,10 +13638,10 @@
         <v>0.17</v>
       </c>
       <c r="H334" t="n">
-        <v>1.16</v>
+        <v>1.84</v>
       </c>
       <c r="I334" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="J334" t="n">
         <v>9</v>
@@ -13708,10 +13708,10 @@
         <v>0.02</v>
       </c>
       <c r="H336" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I336" t="n">
         <v>0.13</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0.08</v>
       </c>
       <c r="J336" t="n">
         <v>8</v>
@@ -13743,10 +13743,10 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I337" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J337" t="n">
         <v>2</v>
@@ -13778,10 +13778,10 @@
         <v>0.02</v>
       </c>
       <c r="H338" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="I338" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J338" t="n">
         <v>2.5</v>
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I339" t="n">
         <v>0.01</v>
@@ -13848,10 +13848,10 @@
         <v>0.01</v>
       </c>
       <c r="H340" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I340" t="n">
         <v>0.08</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0.05</v>
       </c>
       <c r="J340" t="n">
         <v>6.5</v>
@@ -13883,10 +13883,10 @@
         <v>0.02</v>
       </c>
       <c r="H341" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I341" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="J341" t="n">
         <v>6.5</v>
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I343" t="n">
         <v>0.01</v>
@@ -13988,10 +13988,10 @@
         <v>0.01</v>
       </c>
       <c r="H344" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I344" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J344" t="n">
         <v>3.5</v>
@@ -14023,7 +14023,7 @@
         <v>0.01</v>
       </c>
       <c r="H345" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I345" t="n">
         <v>0.01</v>
@@ -14061,7 +14061,7 @@
         <v>0.01</v>
       </c>
       <c r="I346" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J346" t="n">
         <v>3</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I347" t="n">
         <v>0.01</v>
@@ -14131,7 +14131,7 @@
         <v>0.01</v>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J348" t="n">
         <v>2.5</v>
@@ -14198,10 +14198,10 @@
         <v>0.01</v>
       </c>
       <c r="H350" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I350" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J350" t="n">
         <v>5</v>
@@ -14233,10 +14233,10 @@
         <v>0.21</v>
       </c>
       <c r="H351" t="n">
-        <v>1.5</v>
+        <v>2.37</v>
       </c>
       <c r="I351" t="n">
-        <v>0.64</v>
+        <v>1.01</v>
       </c>
       <c r="J351" t="n">
         <v>6</v>
@@ -14268,10 +14268,10 @@
         <v>0.01</v>
       </c>
       <c r="H352" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I352" t="n">
         <v>0.04</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0.03</v>
       </c>
       <c r="J352" t="n">
         <v>5</v>
@@ -14303,10 +14303,10 @@
         <v>0.01</v>
       </c>
       <c r="H353" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I353" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="J353" t="n">
         <v>6.25</v>
@@ -14338,10 +14338,10 @@
         <v>0.01</v>
       </c>
       <c r="H354" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I354" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J354" t="n">
         <v>5</v>
@@ -14373,10 +14373,10 @@
         <v>0.01</v>
       </c>
       <c r="H355" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I355" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J355" t="n">
         <v>4</v>
@@ -14411,7 +14411,7 @@
         <v>0.02</v>
       </c>
       <c r="I356" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J356" t="n">
         <v>5</v>
@@ -14443,10 +14443,10 @@
         <v>0.01</v>
       </c>
       <c r="H357" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I357" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J357" t="n">
         <v>4.5</v>
@@ -14481,7 +14481,7 @@
         <v>0.01</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J358" t="n">
         <v>3.5</v>
@@ -14513,10 +14513,10 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I359" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J359" t="n">
         <v>7</v>
@@ -14583,10 +14583,10 @@
         <v>0.01</v>
       </c>
       <c r="H361" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I361" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0.02</v>
       </c>
       <c r="J361" t="n">
         <v>6</v>
@@ -14618,10 +14618,10 @@
         <v>0.02</v>
       </c>
       <c r="H362" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I362" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J362" t="n">
         <v>3</v>
@@ -14688,10 +14688,10 @@
         <v>0.01</v>
       </c>
       <c r="H364" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I364" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0.03</v>
       </c>
       <c r="J364" t="n">
         <v>7.5</v>
@@ -14723,10 +14723,10 @@
         <v>0.01</v>
       </c>
       <c r="H365" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I365" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J365" t="n">
         <v>5</v>
@@ -14758,10 +14758,10 @@
         <v>0.13</v>
       </c>
       <c r="H366" t="n">
-        <v>1.34</v>
+        <v>2.12</v>
       </c>
       <c r="I366" t="n">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="J366" t="n">
         <v>4.5</v>
@@ -14793,10 +14793,10 @@
         <v>0.05</v>
       </c>
       <c r="H367" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="I367" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="J367" t="n">
         <v>5</v>
@@ -14828,10 +14828,10 @@
         <v>0.03</v>
       </c>
       <c r="H368" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="I368" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="J368" t="n">
         <v>10</v>
@@ -14863,10 +14863,10 @@
         <v>0.06</v>
       </c>
       <c r="H369" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="I369" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="J369" t="n">
         <v>9</v>
@@ -14898,10 +14898,10 @@
         <v>0.01</v>
       </c>
       <c r="H370" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I370" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J370" t="n">
         <v>5.5</v>
@@ -14933,10 +14933,10 @@
         <v>0.02</v>
       </c>
       <c r="H371" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I371" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="J371" t="n">
         <v>7.5</v>
@@ -14971,7 +14971,7 @@
         <v>0.01</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J372" t="n">
         <v>4.5</v>
@@ -15003,7 +15003,7 @@
         <v>0.01</v>
       </c>
       <c r="H373" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I373" t="n">
         <v>0.02</v>
@@ -15038,7 +15038,7 @@
         <v>0.01</v>
       </c>
       <c r="H374" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I374" t="n">
         <v>0.02</v>
@@ -15073,10 +15073,10 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I375" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J375" t="n">
         <v>7.5</v>
@@ -15143,10 +15143,10 @@
         <v>0.07</v>
       </c>
       <c r="H377" t="n">
-        <v>0.72</v>
+        <v>1.15</v>
       </c>
       <c r="I377" t="n">
-        <v>0.56</v>
+        <v>0.89</v>
       </c>
       <c r="J377" t="n">
         <v>17</v>
@@ -15178,10 +15178,10 @@
         <v>0.02</v>
       </c>
       <c r="H378" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I378" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J378" t="n">
         <v>6.5</v>
@@ -15213,10 +15213,10 @@
         <v>0.09</v>
       </c>
       <c r="H379" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="I379" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="J379" t="n">
         <v>7</v>
@@ -15248,10 +15248,10 @@
         <v>0.01</v>
       </c>
       <c r="H380" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I380" t="n">
         <v>0.04</v>
-      </c>
-      <c r="I380" t="n">
-        <v>0.03</v>
       </c>
       <c r="J380" t="n">
         <v>7.5</v>
@@ -15283,10 +15283,10 @@
         <v>0.01</v>
       </c>
       <c r="H381" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I381" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J381" t="n">
         <v>3</v>
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I382" t="n">
         <v>0.01</v>
@@ -15353,10 +15353,10 @@
         <v>0.23</v>
       </c>
       <c r="H383" t="n">
-        <v>2.35</v>
+        <v>3.71</v>
       </c>
       <c r="I383" t="n">
-        <v>0.94</v>
+        <v>1.48</v>
       </c>
       <c r="J383" t="n">
         <v>6.12</v>
@@ -15388,7 +15388,7 @@
         <v>0.01</v>
       </c>
       <c r="H384" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I384" t="n">
         <v>0.01</v>
@@ -15423,7 +15423,7 @@
         <v>0.01</v>
       </c>
       <c r="H385" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I385" t="n">
         <v>0.01</v>
@@ -15458,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I386" t="n">
         <v>0.01</v>
@@ -15493,10 +15493,10 @@
         <v>0.01</v>
       </c>
       <c r="H387" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I387" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J387" t="n">
         <v>4.5</v>
@@ -15528,10 +15528,10 @@
         <v>0.01</v>
       </c>
       <c r="H388" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="I388" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J388" t="n">
         <v>4</v>
@@ -15563,10 +15563,10 @@
         <v>0.02</v>
       </c>
       <c r="H389" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="I389" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J389" t="n">
         <v>4</v>
@@ -15601,7 +15601,7 @@
         <v>0.02</v>
       </c>
       <c r="I390" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J390" t="n">
         <v>3.75</v>
@@ -15636,7 +15636,7 @@
         <v>0.01</v>
       </c>
       <c r="I391" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J391" t="n">
         <v>3</v>
@@ -15668,10 +15668,10 @@
         <v>0.01</v>
       </c>
       <c r="H392" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I392" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J392" t="n">
         <v>4.5</v>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -15773,10 +15773,10 @@
         <v>0.02</v>
       </c>
       <c r="H395" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I395" t="n">
         <v>0.13</v>
-      </c>
-      <c r="I395" t="n">
-        <v>0.08</v>
       </c>
       <c r="J395" t="n">
         <v>8</v>
@@ -15808,10 +15808,10 @@
         <v>0.01</v>
       </c>
       <c r="H396" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I396" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J396" t="n">
         <v>4.5</v>
@@ -15843,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -15878,10 +15878,10 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I398" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J398" t="n">
         <v>2.5</v>
@@ -15913,10 +15913,10 @@
         <v>0.01</v>
       </c>
       <c r="H399" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I399" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J399" t="n">
         <v>1.5</v>
@@ -15948,10 +15948,10 @@
         <v>0.01</v>
       </c>
       <c r="H400" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I400" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J400" t="n">
         <v>5</v>
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I401" t="n">
         <v>0.01</v>
@@ -16018,10 +16018,10 @@
         <v>0.01</v>
       </c>
       <c r="H402" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I402" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J402" t="n">
         <v>4.5</v>
@@ -16053,10 +16053,10 @@
         <v>0.05</v>
       </c>
       <c r="H403" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="I403" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="J403" t="n">
         <v>3.5</v>
@@ -16088,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I404" t="n">
         <v>0.01</v>
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -16158,10 +16158,10 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I406" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J406" t="n">
         <v>4</v>
@@ -16193,10 +16193,10 @@
         <v>0.01</v>
       </c>
       <c r="H407" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I407" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="J407" t="n">
         <v>6</v>
@@ -16228,10 +16228,10 @@
         <v>0.02</v>
       </c>
       <c r="H408" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="I408" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="J408" t="n">
         <v>10</v>
@@ -16263,10 +16263,10 @@
         <v>0.01</v>
       </c>
       <c r="H409" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I409" t="n">
         <v>0.03</v>
-      </c>
-      <c r="I409" t="n">
-        <v>0.02</v>
       </c>
       <c r="J409" t="n">
         <v>2.5</v>
@@ -16298,10 +16298,10 @@
         <v>0.04</v>
       </c>
       <c r="H410" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
       <c r="I410" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="J410" t="n">
         <v>9</v>
@@ -16333,10 +16333,10 @@
         <v>0.08</v>
       </c>
       <c r="H411" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="I411" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="J411" t="n">
         <v>7</v>
@@ -16368,10 +16368,10 @@
         <v>0.01</v>
       </c>
       <c r="H412" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I412" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J412" t="n">
         <v>4</v>
@@ -16403,10 +16403,10 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I413" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J413" t="n">
         <v>2</v>
@@ -16441,7 +16441,7 @@
         <v>0.01</v>
       </c>
       <c r="I414" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J414" t="n">
         <v>3</v>
@@ -16473,10 +16473,10 @@
         <v>0.01</v>
       </c>
       <c r="H415" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I415" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J415" t="n">
         <v>2.5</v>
@@ -16508,10 +16508,10 @@
         <v>0.01</v>
       </c>
       <c r="H416" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I416" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J416" t="n">
         <v>4</v>
@@ -16543,10 +16543,10 @@
         <v>0.03</v>
       </c>
       <c r="H417" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="I417" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J417" t="n">
         <v>6</v>
@@ -16578,10 +16578,10 @@
         <v>0.01</v>
       </c>
       <c r="H418" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I418" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I418" t="n">
-        <v>0.03</v>
       </c>
       <c r="J418" t="n">
         <v>5</v>
@@ -16613,10 +16613,10 @@
         <v>0.02</v>
       </c>
       <c r="H419" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I419" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I419" t="n">
-        <v>0.03</v>
       </c>
       <c r="J419" t="n">
         <v>4</v>
@@ -16648,7 +16648,7 @@
         <v>0.01</v>
       </c>
       <c r="H420" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I420" t="n">
         <v>0.01</v>
@@ -16683,10 +16683,10 @@
         <v>0.03</v>
       </c>
       <c r="H421" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I421" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="J421" t="n">
         <v>10</v>
@@ -16718,7 +16718,7 @@
         <v>0.03</v>
       </c>
       <c r="H422" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -16753,7 +16753,7 @@
         <v>0.01</v>
       </c>
       <c r="H423" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I423" t="n">
         <v>0.02</v>
@@ -16788,10 +16788,10 @@
         <v>0.02</v>
       </c>
       <c r="H424" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I424" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J424" t="n">
         <v>6</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I425" t="n">
         <v>0.01</v>
@@ -16858,10 +16858,10 @@
         <v>0.03</v>
       </c>
       <c r="H426" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I426" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="J426" t="n">
         <v>6</v>
@@ -16893,10 +16893,10 @@
         <v>0.02</v>
       </c>
       <c r="H427" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I427" t="n">
         <v>0.09</v>
-      </c>
-      <c r="I427" t="n">
-        <v>0.06</v>
       </c>
       <c r="J427" t="n">
         <v>6</v>
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I428" t="n">
         <v>0.01</v>
@@ -16963,10 +16963,10 @@
         <v>0.01</v>
       </c>
       <c r="H429" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I429" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J429" t="n">
         <v>3.5</v>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I430" t="n">
         <v>0.01</v>
@@ -17033,10 +17033,10 @@
         <v>0.01</v>
       </c>
       <c r="H431" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I431" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J431" t="n">
         <v>5</v>
